--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220517_110202.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220517_110202.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="260">
   <si>
     <t>사이트</t>
   </si>
@@ -2580,6 +2580,12 @@
       <c r="F55" t="s">
         <v>191</v>
       </c>
+      <c r="G55" t="s">
+        <v>237</v>
+      </c>
+      <c r="H55" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220517_110202.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220517_110202.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="259">
   <si>
     <t>사이트</t>
   </si>
@@ -734,9 +734,6 @@
   </si>
   <si>
     <t>SOURCE MUSIC</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>SSK</t>
@@ -2087,7 +2084,7 @@
         <v>182</v>
       </c>
       <c r="G36" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H36" t="s">
         <v>237</v>
@@ -2165,7 +2162,7 @@
         <v>183</v>
       </c>
       <c r="G39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H39" t="s">
         <v>237</v>
@@ -2191,7 +2188,7 @@
         <v>184</v>
       </c>
       <c r="G40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H40" t="s">
         <v>237</v>
@@ -2243,7 +2240,7 @@
         <v>50</v>
       </c>
       <c r="G42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H42" t="s">
         <v>237</v>
@@ -2321,7 +2318,7 @@
         <v>185</v>
       </c>
       <c r="G45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H45" t="s">
         <v>237</v>
@@ -2347,7 +2344,7 @@
         <v>186</v>
       </c>
       <c r="G46" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H46" t="s">
         <v>237</v>
@@ -2451,7 +2448,7 @@
         <v>58</v>
       </c>
       <c r="G50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H50" t="s">
         <v>237</v>
@@ -2607,7 +2604,7 @@
         <v>192</v>
       </c>
       <c r="G56" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H56" t="s">
         <v>237</v>
@@ -2633,10 +2630,10 @@
         <v>193</v>
       </c>
       <c r="G57" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H57" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2659,7 +2656,7 @@
         <v>66</v>
       </c>
       <c r="G58" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H58" t="s">
         <v>237</v>
@@ -2711,7 +2708,7 @@
         <v>194</v>
       </c>
       <c r="G60" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H60" t="s">
         <v>237</v>
@@ -2737,7 +2734,7 @@
         <v>195</v>
       </c>
       <c r="G61" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H61" t="s">
         <v>237</v>
@@ -2763,7 +2760,7 @@
         <v>70</v>
       </c>
       <c r="G62" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H62" t="s">
         <v>237</v>
@@ -2789,7 +2786,7 @@
         <v>196</v>
       </c>
       <c r="G63" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H63" t="s">
         <v>237</v>
@@ -2815,10 +2812,10 @@
         <v>72</v>
       </c>
       <c r="G64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2841,7 +2838,7 @@
         <v>185</v>
       </c>
       <c r="G65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H65" t="s">
         <v>237</v>
@@ -2867,7 +2864,7 @@
         <v>74</v>
       </c>
       <c r="G66" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H66" t="s">
         <v>237</v>
@@ -2971,7 +2968,7 @@
         <v>199</v>
       </c>
       <c r="G70" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H70" t="s">
         <v>237</v>
@@ -3049,7 +3046,7 @@
         <v>81</v>
       </c>
       <c r="G73" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H73" t="s">
         <v>237</v>
@@ -3101,7 +3098,7 @@
         <v>203</v>
       </c>
       <c r="G75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H75" t="s">
         <v>237</v>
@@ -3153,7 +3150,7 @@
         <v>204</v>
       </c>
       <c r="G77" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H77" t="s">
         <v>237</v>
@@ -3179,7 +3176,7 @@
         <v>205</v>
       </c>
       <c r="G78" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H78" t="s">
         <v>237</v>
@@ -3205,7 +3202,7 @@
         <v>206</v>
       </c>
       <c r="G79" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H79" t="s">
         <v>237</v>
@@ -3231,10 +3228,10 @@
         <v>207</v>
       </c>
       <c r="G80" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H80" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3257,7 +3254,7 @@
         <v>208</v>
       </c>
       <c r="G81" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H81" t="s">
         <v>237</v>
@@ -3283,7 +3280,7 @@
         <v>209</v>
       </c>
       <c r="G82" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H82" t="s">
         <v>237</v>
@@ -3309,7 +3306,7 @@
         <v>210</v>
       </c>
       <c r="G83" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H83" t="s">
         <v>237</v>
@@ -3387,7 +3384,7 @@
         <v>213</v>
       </c>
       <c r="G86" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H86" t="s">
         <v>237</v>
@@ -3413,7 +3410,7 @@
         <v>214</v>
       </c>
       <c r="G87" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H87" t="s">
         <v>237</v>
@@ -3465,7 +3462,7 @@
         <v>216</v>
       </c>
       <c r="G89" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H89" t="s">
         <v>237</v>
@@ -3569,7 +3566,7 @@
         <v>218</v>
       </c>
       <c r="G93" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H93" t="s">
         <v>237</v>
@@ -3699,7 +3696,7 @@
         <v>221</v>
       </c>
       <c r="G98" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H98" t="s">
         <v>237</v>
@@ -3725,7 +3722,7 @@
         <v>222</v>
       </c>
       <c r="G99" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H99" t="s">
         <v>237</v>
@@ -3777,7 +3774,7 @@
         <v>223</v>
       </c>
       <c r="G101" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H101" t="s">
         <v>237</v>
